--- a/ChinaOSSReport_Chn_2015/ChinaOSSReport_Chn_Tables_2015.xlsx
+++ b/ChinaOSSReport_Chn_2015/ChinaOSSReport_Chn_Tables_2015.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="25808"/>
+  <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Summer/Projects/Kaiyuanshe/2015-China-Open-Source-Report/ChinaOSSReport_Chn_2015/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21510" windowHeight="10500" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25460" windowHeight="12720" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="国内有影响力的开源专家" sheetId="1" r:id="rId1"/>
@@ -17,12 +22,17 @@
     <sheet name="公共在线社区" sheetId="8" r:id="rId8"/>
     <sheet name="特定项目_技术社区" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="489">
   <si>
     <t>姓名</t>
   </si>
@@ -3622,18 +3632,24 @@
       <t>文档系统</t>
     </r>
   </si>
+  <si>
+    <t>Fedora中文社区</t>
+  </si>
+  <si>
+    <t>www.fdzh.org</t>
+  </si>
+  <si>
+    <t>Fedora中文社区，提供关于 Fedora 的最新资讯，及一系列开源工具，包括构建系统，粘贴板等。</t>
+  </si>
+  <si>
+    <t>非官方</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -3656,19 +3672,6 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3801,36 +3804,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3850,47 +3832,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="货币" xfId="3" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3901,6 +3889,7 @@
     <tableColumn id="2" name="Column2"/>
     <tableColumn id="3" name="Column3"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4199,6 +4188,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -4231,23 +4221,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.8571428571429" style="17" customWidth="1"/>
-    <col min="2" max="2" width="38.2857142857143" style="17" customWidth="1"/>
-    <col min="3" max="3" width="44" style="17" customWidth="1"/>
-    <col min="4" max="16384" width="9.14285714285714" style="17"/>
+    <col min="1" max="1" width="38.83203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="44" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4258,7 +4247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -4269,7 +4258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -4280,7 +4269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="33" spans="1:3">
+    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -4291,7 +4280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="33" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -4302,7 +4291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -4313,7 +4302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="33" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -4324,7 +4313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4335,7 +4324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="33" spans="1:3">
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -4346,7 +4335,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" ht="33" spans="1:3">
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -4357,7 +4346,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" ht="49.5" spans="1:3">
+    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
@@ -4369,9 +4358,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -4379,22 +4367,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.4285714285714" style="14" customWidth="1"/>
-    <col min="2" max="2" width="57.2857142857143" style="14" customWidth="1"/>
-    <col min="3" max="16384" width="9.14285714285714" style="14"/>
+    <col min="1" max="1" width="30.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4402,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:2">
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -4410,7 +4397,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:2">
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>34</v>
       </c>
@@ -4418,7 +4405,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:2">
+    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -4426,7 +4413,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:2">
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
@@ -4434,7 +4421,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:2">
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -4442,7 +4429,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:2">
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
@@ -4450,7 +4437,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:2">
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -4458,7 +4445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:2">
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>46</v>
       </c>
@@ -4466,7 +4453,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:2">
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
@@ -4475,30 +4462,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="A1:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.2857142857143" style="14" customWidth="1"/>
-    <col min="2" max="2" width="50.8571428571429" style="14" customWidth="1"/>
-    <col min="3" max="3" width="41.1428571428571" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="9.14285714285714" style="14"/>
+    <col min="1" max="1" width="25.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="50.83203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="41.1640625" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -4509,7 +4494,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" ht="82.5" spans="1:3">
+    <row r="2" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
@@ -4520,7 +4505,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" ht="33" spans="1:3">
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>56</v>
       </c>
@@ -4531,21 +4516,21 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:3">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" ht="16.5" spans="1:3">
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" ht="16.5" spans="1:3">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>61</v>
       </c>
@@ -4556,7 +4541,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:3">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -4567,7 +4552,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:3">
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>67</v>
       </c>
@@ -4578,7 +4563,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:3">
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
@@ -4589,7 +4574,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:3">
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>73</v>
       </c>
@@ -4600,7 +4585,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" ht="33" spans="1:3">
+    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>76</v>
       </c>
@@ -4611,7 +4596,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:3">
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>78</v>
       </c>
@@ -4622,7 +4607,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" ht="33" spans="1:3">
+    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>81</v>
       </c>
@@ -4633,7 +4618,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:3">
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>84</v>
       </c>
@@ -4644,7 +4629,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:3">
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>87</v>
       </c>
@@ -4655,7 +4640,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:3">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>90</v>
       </c>
@@ -4666,7 +4651,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:3">
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>92</v>
       </c>
@@ -4678,27 +4663,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E37"/>
+      <selection sqref="A1:E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.2857142857143" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="32.2857142857143" style="14"/>
+    <col min="1" max="16384" width="32.33203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:5">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
@@ -4715,8 +4698,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4732,8 +4715,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" ht="49.5" spans="1:5">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
       <c r="B3" s="5" t="s">
         <v>104</v>
       </c>
@@ -4747,8 +4730,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>107</v>
       </c>
@@ -4762,8 +4745,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" ht="33" spans="1:5">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
       <c r="B5" s="5" t="s">
         <v>110</v>
       </c>
@@ -4777,8 +4760,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" ht="33" spans="1:5">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
         <v>113</v>
       </c>
@@ -4792,8 +4775,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
       <c r="B7" s="5" t="s">
         <v>117</v>
       </c>
@@ -4807,8 +4790,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" ht="66" spans="1:5">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
       <c r="B8" s="3" t="s">
         <v>120</v>
       </c>
@@ -4822,8 +4805,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" ht="18" customHeight="1" spans="1:5">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>122</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -4839,8 +4822,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" ht="17.25" customHeight="1" spans="1:5">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
       <c r="B10" s="5" t="s">
         <v>126</v>
       </c>
@@ -4854,8 +4837,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
       <c r="B11" s="3" t="s">
         <v>127</v>
       </c>
@@ -4865,7 +4848,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="33" spans="1:5">
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>129</v>
       </c>
@@ -4882,7 +4865,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" ht="49.5" spans="1:5">
+    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>133</v>
       </c>
@@ -4899,7 +4882,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" ht="49.5" spans="1:5">
+    <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>137</v>
@@ -4914,7 +4897,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" ht="49.5" spans="1:5">
+    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>139</v>
       </c>
@@ -4931,8 +4914,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>143</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -4948,8 +4931,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" ht="33" spans="1:5">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
       <c r="B17" s="3" t="s">
         <v>147</v>
       </c>
@@ -4963,8 +4946,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:5">
-      <c r="A18" s="16"/>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
       <c r="B18" s="5" t="s">
         <v>149</v>
       </c>
@@ -4978,8 +4961,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:5">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
         <v>150</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -4995,8 +4978,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" ht="33" spans="1:5">
-      <c r="A20" s="2"/>
+    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
       <c r="B20" s="3" t="s">
         <v>153</v>
       </c>
@@ -5010,8 +4993,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:5">
-      <c r="A21" s="2"/>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
       <c r="B21" s="5" t="s">
         <v>155</v>
       </c>
@@ -5025,7 +5008,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:5">
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>156</v>
       </c>
@@ -5042,8 +5025,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" ht="66" spans="1:5">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
         <v>159</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -5059,8 +5042,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" ht="33" spans="1:5">
-      <c r="A24" s="4"/>
+    <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
       <c r="B24" s="3" t="s">
         <v>162</v>
       </c>
@@ -5074,8 +5057,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" ht="66" spans="1:5">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
         <v>164</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -5091,8 +5074,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" ht="49.5" spans="1:5">
-      <c r="A26" s="4"/>
+    <row r="26" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
       <c r="B26" s="3" t="s">
         <v>168</v>
       </c>
@@ -5106,8 +5089,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" ht="33" spans="1:5">
-      <c r="A27" s="4"/>
+    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
       <c r="B27" s="5" t="s">
         <v>171</v>
       </c>
@@ -5121,8 +5104,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:5">
-      <c r="A28" s="4"/>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
       <c r="B28" s="5" t="s">
         <v>173</v>
       </c>
@@ -5136,8 +5119,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:5">
-      <c r="A29" s="4"/>
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
       <c r="B29" s="3" t="s">
         <v>175</v>
       </c>
@@ -5151,8 +5134,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:5">
-      <c r="A30" s="4"/>
+    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
       <c r="B30" s="5" t="s">
         <v>176</v>
       </c>
@@ -5166,8 +5149,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:5">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
         <v>178</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -5183,8 +5166,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:5">
-      <c r="A32" s="2"/>
+    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
       <c r="B32" s="5" t="s">
         <v>181</v>
       </c>
@@ -5198,7 +5181,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:5">
+    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>183</v>
       </c>
@@ -5215,7 +5198,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" ht="33" spans="1:5">
+    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>187</v>
       </c>
@@ -5232,7 +5215,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:5">
+    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>191</v>
       </c>
@@ -5249,7 +5232,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:5">
+    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>193</v>
       </c>
@@ -5266,7 +5249,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:5">
+    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>197</v>
       </c>
@@ -5285,120 +5268,118 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A31:A32"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="73.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="73.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="3" ht="17.25" spans="1:2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="B3" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:2">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="19"/>
+      <c r="B5" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="19"/>
+      <c r="B6" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="19"/>
+      <c r="B7" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="19"/>
+      <c r="B8" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
+      <c r="B9" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
+      <c r="B10" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
+      <c r="B11" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="B12" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="19"/>
+      <c r="B13" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="19"/>
+      <c r="B14" s="7" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5407,24 +5388,20 @@
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A4:A14"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -5453,7 +5430,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" ht="49.5" spans="1:9">
+    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>222</v>
       </c>
@@ -5480,7 +5457,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:9">
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>200</v>
       </c>
@@ -5501,7 +5478,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" ht="49.5" spans="1:9">
+    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>201</v>
       </c>
@@ -5530,7 +5507,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" ht="33" spans="1:9">
+    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>238</v>
       </c>
@@ -5557,7 +5534,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" ht="132" spans="1:9">
+    <row r="6" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>211</v>
       </c>
@@ -5586,7 +5563,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" ht="33" spans="1:9">
+    <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>247</v>
       </c>
@@ -5613,7 +5590,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" ht="33" spans="1:9">
+    <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>250</v>
       </c>
@@ -5640,7 +5617,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:9">
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>205</v>
       </c>
@@ -5663,7 +5640,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="10" ht="66" spans="1:9">
+    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>206</v>
       </c>
@@ -5690,7 +5667,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:9">
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>207</v>
       </c>
@@ -5715,7 +5692,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="12" ht="33" spans="1:9">
+    <row r="12" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>212</v>
       </c>
@@ -5740,7 +5717,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" ht="33" spans="1:9">
+    <row r="13" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>213</v>
       </c>
@@ -5761,7 +5738,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" ht="33" spans="1:9">
+    <row r="14" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>274</v>
       </c>
@@ -5788,7 +5765,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="15" ht="115.5" spans="1:9">
+    <row r="15" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>280</v>
       </c>
@@ -5813,7 +5790,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="16" ht="33" spans="1:9">
+    <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>286</v>
       </c>
@@ -5836,7 +5813,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="17" ht="49.5" spans="1:9">
+    <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>291</v>
       </c>
@@ -5861,7 +5838,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" ht="49.5" spans="1:9">
+    <row r="18" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>297</v>
       </c>
@@ -5884,7 +5861,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" ht="132" spans="1:9">
+    <row r="19" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>302</v>
       </c>
@@ -5909,7 +5886,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="20" ht="49.5" spans="1:9">
+    <row r="20" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>309</v>
       </c>
@@ -5934,7 +5911,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" ht="49.5" spans="1:9">
+    <row r="21" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>315</v>
       </c>
@@ -5959,7 +5936,7 @@
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" ht="49.5" spans="1:9">
+    <row r="22" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>318</v>
       </c>
@@ -5986,47 +5963,43 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I8" r:id="rId1" display="http://cn.pycon.org/"/>
-    <hyperlink ref="I7" r:id="rId2" display="http://www.hellogcc.org/?p=33749"/>
-    <hyperlink ref="I3" r:id="rId3" display="http://2014.cssconf.com/"/>
-    <hyperlink ref="I4" r:id="rId4" display="http://2014.html5dw.com/"/>
-    <hyperlink ref="I9" r:id="rId5" display="http://rubyconf.org/"/>
-    <hyperlink ref="I11" r:id="rId6" display="http://summit.opensuse.org"/>
-    <hyperlink ref="I6" r:id="rId7" display="http://www.ckernel.org/"/>
-    <hyperlink ref="I5" r:id="rId8" display="http://ostc.csdn.net/m/zone/ostc_2014"/>
-    <hyperlink ref="I14" r:id="rId9" display="https://www.eclipsecon.org/na2014/news"/>
-    <hyperlink ref="I15" r:id="rId10" display="http://events.linuxfoundation.org/events/archive/2014/embedded-linux-conference"/>
-    <hyperlink ref="I16" r:id="rId11" display="https://akademy.kde.org/2014"/>
-    <hyperlink ref="I17" r:id="rId12" display="http://events.linuxfoundation.org/events/archive/2014/opendaylight-summit"/>
-    <hyperlink ref="I19" r:id="rId13" display="http://kernsec.org/wiki/index.php/Linux_Security_Summit_2014"/>
-    <hyperlink ref="I22" r:id="rId14" display="http://events.linuxfoundation.org/events/xen-project-developer-summit"/>
-    <hyperlink ref="I2" r:id="rId15" display="http://www.copu.org.cn"/>
+    <hyperlink ref="I8" r:id="rId1"/>
+    <hyperlink ref="I7" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="I4" r:id="rId4"/>
+    <hyperlink ref="I9" r:id="rId5"/>
+    <hyperlink ref="I11" r:id="rId6"/>
+    <hyperlink ref="I6" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="I14" r:id="rId9"/>
+    <hyperlink ref="I15" r:id="rId10"/>
+    <hyperlink ref="I16" r:id="rId11"/>
+    <hyperlink ref="I17" r:id="rId12"/>
+    <hyperlink ref="I19" r:id="rId13"/>
+    <hyperlink ref="I22" r:id="rId14"/>
+    <hyperlink ref="I2" r:id="rId15"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="1:17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFD17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="7" max="7" width="15.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:16384" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -6055,7 +6028,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" ht="33" spans="1:9">
+    <row r="2" spans="1:16384" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>324</v>
       </c>
@@ -6082,7 +6055,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" ht="33" spans="1:9">
+    <row r="3" spans="1:16384" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>327</v>
       </c>
@@ -6111,7 +6084,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="4" ht="33" spans="1:9">
+    <row r="4" spans="1:16384" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>327</v>
       </c>
@@ -6140,7 +6113,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="5" ht="33" spans="1:9">
+    <row r="5" spans="1:16384" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>337</v>
       </c>
@@ -6169,7 +6142,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" ht="36" spans="1:9">
+    <row r="6" spans="1:16384" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>341</v>
       </c>
@@ -6198,7 +6171,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:9">
+    <row r="7" spans="1:16384" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>347</v>
       </c>
@@ -6227,7 +6200,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="8" ht="33" spans="1:9">
+    <row r="8" spans="1:16384" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>352</v>
       </c>
@@ -6256,7 +6229,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:9">
+    <row r="9" spans="1:16384" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>358</v>
       </c>
@@ -6285,7 +6258,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:9">
+    <row r="10" spans="1:16384" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>365</v>
       </c>
@@ -6314,7 +6287,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11" ht="33" spans="1:9">
+    <row r="11" spans="1:16384" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>372</v>
       </c>
@@ -6341,7 +6314,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:16384">
+    <row r="12" spans="1:16384" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>377</v>
       </c>
@@ -22743,7 +22716,7 @@
       <c r="XFC12" s="4"/>
       <c r="XFD12" s="5"/>
     </row>
-    <row r="13" ht="33" spans="1:9">
+    <row r="13" spans="1:16384" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>381</v>
       </c>
@@ -22770,7 +22743,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:9">
+    <row r="14" spans="1:16384" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>386</v>
       </c>
@@ -22795,7 +22768,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" ht="16.5" spans="1:9">
+    <row r="15" spans="1:16384" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>204</v>
       </c>
@@ -22822,7 +22795,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="16" ht="33" spans="1:9">
+    <row r="16" spans="1:16384" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>394</v>
       </c>
@@ -22847,7 +22820,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:9">
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>399</v>
       </c>
@@ -22876,32 +22849,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="http://www.copu.org.cn"/>
+    <hyperlink ref="I2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A6" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="18.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="38.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="74.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="38.5" customWidth="1"/>
+    <col min="4" max="4" width="74.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>404</v>
       </c>
@@ -22915,7 +22884,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="2" ht="66" spans="1:4">
+    <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>407</v>
       </c>
@@ -22929,7 +22898,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="3" ht="49.5" spans="1:4">
+    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>241</v>
       </c>
@@ -22943,7 +22912,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="4" ht="66" spans="1:4">
+    <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>414</v>
       </c>
@@ -22957,7 +22926,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="5" ht="66" spans="1:4">
+    <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>418</v>
       </c>
@@ -22971,7 +22940,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="6" ht="33" spans="1:4">
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>422</v>
       </c>
@@ -22985,7 +22954,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="7" ht="33" spans="1:4">
+    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>426</v>
       </c>
@@ -22999,7 +22968,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="8" ht="49.5" spans="1:4">
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>430</v>
       </c>
@@ -23013,7 +22982,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="9" ht="49.5" spans="1:4">
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>434</v>
       </c>
@@ -23027,7 +22996,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="10" ht="49.5" spans="1:4">
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>438</v>
       </c>
@@ -23041,7 +23010,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="11" ht="49.5" spans="1:4">
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>442</v>
       </c>
@@ -23056,30 +23025,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="32.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="60.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>404</v>
       </c>
@@ -23093,7 +23060,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="2" ht="46.5" spans="1:4">
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>446</v>
       </c>
@@ -23107,7 +23074,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="3" ht="30" spans="1:4">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>450</v>
       </c>
@@ -23121,7 +23088,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:4">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>454</v>
       </c>
@@ -23135,7 +23102,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" ht="30" spans="1:4">
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>458</v>
       </c>
@@ -23149,7 +23116,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:4">
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>462</v>
       </c>
@@ -23163,7 +23130,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:4">
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>466</v>
       </c>
@@ -23177,7 +23144,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:4">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>470</v>
       </c>
@@ -23191,7 +23158,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="9" ht="30" spans="1:4">
+    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>474</v>
       </c>
@@ -23203,7 +23170,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" ht="30" spans="1:4">
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>477</v>
       </c>
@@ -23217,7 +23184,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:4">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>481</v>
       </c>
@@ -23231,9 +23198,22 @@
         <v>484</v>
       </c>
     </row>
+    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>